--- a/documents/example_docs_school/8 параллель.xlsx
+++ b/documents/example_docs_school/8 параллель.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CA684-B2FB-1C43-AF0F-40634294B0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E40DA1-9D9F-5D45-8C65-7ED273D85FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_school/8 параллель.xlsx
+++ b/documents/example_docs_school/8 параллель.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E40DA1-9D9F-5D45-8C65-7ED273D85FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E777D5-F296-FF46-BB75-C605454BDF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,10 @@
     <t>В</t>
   </si>
   <si>
-    <t>Г</t>
-  </si>
-  <si>
-    <t>Д</t>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>33</v>
